--- a/Docs/tijd_schrijven/Tijdschrijfformulier Luuk.xlsx
+++ b/Docs/tijd_schrijven/Tijdschrijfformulier Luuk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p56471597\Windesheim Office365\O365-Team HBO-ICT Zwolle - Documenten\Team instroom\Propedeusesemester 1\ICT.P.KBSa.V19\Projectdocumenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\Docs\tijd_schrijven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_1193B5E0F451D65BF2336D7A88DC1B7B07631910" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{D5B12D0D-6EDF-4885-BCD9-2F06D3B47DB5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848ED64B-975B-4382-8F26-37AC582FB34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23250" windowHeight="13170" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
@@ -28,11 +28,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">Projectlid5!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Projectlid6!$A$1:$D$47</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -43,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="18">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -79,6 +85,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Luuk</t>
+  </si>
+  <si>
+    <t>ICTmn! Ofzo</t>
+  </si>
+  <si>
+    <t>1 / HTML</t>
+  </si>
+  <si>
+    <t>KBS b les</t>
+  </si>
+  <si>
+    <t>Les</t>
+  </si>
+  <si>
+    <t>18 10 2023</t>
   </si>
 </sst>
 </file>
@@ -151,18 +175,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -256,9 +280,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,9 +320,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,26 +355,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,26 +390,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -576,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -592,12 +582,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -660,17 +650,6 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -695,7 +674,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -711,12 +690,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -776,17 +755,6 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -811,7 +779,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -827,12 +795,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -892,17 +860,6 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -927,7 +884,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -943,12 +900,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1008,17 +965,6 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1043,7 +989,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -1059,12 +1005,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1124,17 +1070,6 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1160,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,27 +1111,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1207,7 +1151,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1219,7 +1163,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1242,16 +1186,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1502,6 +1449,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
@@ -1511,20 +1467,35 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAC8759-EB35-489F-BF7F-6A43D48E2DBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
+    <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1537,14 +1508,7 @@
     <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/tijd_schrijven/Tijdschrijfformulier Luuk.xlsx
+++ b/Docs/tijd_schrijven/Tijdschrijfformulier Luuk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\Docs\tijd_schrijven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848ED64B-975B-4382-8F26-37AC582FB34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82FE6B6-98EE-4D7C-AC0D-8A6ADA7AD07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>18 10 2023</t>
+  </si>
+  <si>
+    <t>1 11 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les </t>
   </si>
 </sst>
 </file>
@@ -175,13 +181,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -582,12 +588,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -690,12 +696,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -795,12 +801,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -900,12 +906,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1005,12 +1011,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1095,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,12 +1117,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1151,7 +1157,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1163,7 +1169,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1190,7 +1196,7 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C10">
@@ -1198,6 +1204,20 @@
       </c>
       <c r="D10" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1449,15 +1469,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
@@ -1465,6 +1476,15 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1488,14 +1508,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1511,4 +1523,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/tijd_schrijven/Tijdschrijfformulier Luuk.xlsx
+++ b/Docs/tijd_schrijven/Tijdschrijfformulier Luuk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\Docs\tijd_schrijven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82FE6B6-98EE-4D7C-AC0D-8A6ADA7AD07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8CE646-9982-4C37-95FB-CE6F881DBA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t xml:space="preserve">Les </t>
+  </si>
+  <si>
+    <t>kbs a les</t>
+  </si>
+  <si>
+    <t>6 11 2023</t>
+  </si>
+  <si>
+    <t>les</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1166,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1169,7 +1178,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1218,6 +1227,20 @@
       </c>
       <c r="D11" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1469,6 +1492,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
@@ -1476,15 +1508,6 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1508,6 +1531,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1523,12 +1554,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/tijd_schrijven/Tijdschrijfformulier Luuk.xlsx
+++ b/Docs/tijd_schrijven/Tijdschrijfformulier Luuk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\NerdyGadgets\Docs\tijd_schrijven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8CE646-9982-4C37-95FB-CE6F881DBA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82FE6B6-98EE-4D7C-AC0D-8A6ADA7AD07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -109,15 +109,6 @@
   </si>
   <si>
     <t xml:space="preserve">Les </t>
-  </si>
-  <si>
-    <t>kbs a les</t>
-  </si>
-  <si>
-    <t>6 11 2023</t>
-  </si>
-  <si>
-    <t>les</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1157,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1178,7 +1169,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1227,20 +1218,6 @@
       </c>
       <c r="D11" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>120</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1492,15 +1469,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
@@ -1508,6 +1476,15 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1531,14 +1508,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1554,4 +1523,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>